--- a/tests/tropic/input_experimental.xlsx
+++ b/tests/tropic/input_experimental.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\rmrr\larest\larest-main\tests\tropic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CDE2C6-AFA4-4407-8F40-3E3ADB50A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457BBD31-0986-4F40-B2E1-70C9C8069AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1450" yWindow="-19520" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="318">
   <si>
     <t>monomer_smiles</t>
   </si>
@@ -849,18 +849,6 @@
     <t>O=C2Cc1ccccc1CCO2</t>
   </si>
   <si>
-    <t>toluene_d9</t>
-  </si>
-  <si>
-    <t>toluene_d10</t>
-  </si>
-  <si>
-    <t>toluene_d11</t>
-  </si>
-  <si>
-    <t>toluene_d12</t>
-  </si>
-  <si>
     <t>Cai_Zhu_2023_NatCommun_M1</t>
   </si>
   <si>
@@ -1006,9 +994,6 @@
   </si>
   <si>
     <t>duplicate</t>
-  </si>
-  <si>
-    <t>values from review (duplicate)</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1490,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="39" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="AD100" sqref="AD100"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1607,19 +1592,19 @@
         <v>9</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>97</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>25</v>
@@ -1646,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AF1" s="11" t="s">
         <v>117</v>
@@ -1913,7 +1898,7 @@
         <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1973,7 +1958,7 @@
         <v>62</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>66</v>
@@ -2016,7 +2001,7 @@
         <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>64</v>
@@ -2059,7 +2044,7 @@
         <v>62</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>66</v>
@@ -2102,7 +2087,7 @@
         <v>62</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="4">
         <v>0.4</v>
@@ -2122,41 +2107,47 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="B11" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
+      <c r="R11" s="32"/>
+      <c r="S11" s="32">
         <v>-29.9</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="X11" s="3" t="s">
+      <c r="T11" s="32"/>
+      <c r="W11" s="29">
+        <v>2009</v>
+      </c>
+      <c r="X11" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AD11" s="1" t="s">
-        <v>322</v>
+      <c r="AD11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE11" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2179,7 +2170,7 @@
         <v>62</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q12" s="32">
         <v>-82.3</v>
@@ -2189,11 +2180,17 @@
         <v>-74</v>
       </c>
       <c r="T12" s="32"/>
+      <c r="W12" s="29">
+        <v>2009</v>
+      </c>
       <c r="X12" s="31" t="s">
         <v>74</v>
       </c>
       <c r="AD12" s="29" t="s">
-        <v>322</v>
+        <v>131</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2616,7 +2613,7 @@
         <v>62</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N22" s="1">
         <v>298</v>
@@ -2656,7 +2653,7 @@
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>158</v>
@@ -2699,7 +2696,7 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>158</v>
@@ -2742,7 +2739,7 @@
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>63</v>
@@ -2788,7 +2785,7 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>63</v>
@@ -2832,7 +2829,7 @@
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>63</v>
@@ -2873,10 +2870,10 @@
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N28" s="1">
         <v>298</v>
@@ -4831,11 +4828,14 @@
       <c r="T67" s="32">
         <v>2</v>
       </c>
+      <c r="W67" s="29">
+        <v>2025</v>
+      </c>
       <c r="X67" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD67" s="29" t="s">
-        <v>321</v>
+      <c r="AE67" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6402,10 +6402,10 @@
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N100" s="1">
         <v>298.14999999999998</v>
@@ -6448,7 +6448,7 @@
         <v>62</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N101" s="1">
         <v>298.14999999999998</v>
@@ -6491,7 +6491,7 @@
         <v>62</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N102" s="1">
         <v>298.14999999999998</v>
@@ -6531,10 +6531,10 @@
       </c>
       <c r="K103" s="31"/>
       <c r="L103" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M103" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N103" s="29">
         <v>298.14999999999998</v>
@@ -6550,11 +6550,14 @@
         <v>-86</v>
       </c>
       <c r="T103" s="32"/>
+      <c r="W103" s="29">
+        <v>1996</v>
+      </c>
       <c r="X103" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AD103" s="29" t="s">
-        <v>321</v>
+      <c r="AE103" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6574,7 +6577,7 @@
       </c>
       <c r="K104" s="31"/>
       <c r="L104" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M104" s="29" t="s">
         <v>63</v>
@@ -6593,11 +6596,14 @@
         <v>41</v>
       </c>
       <c r="T104" s="32"/>
+      <c r="W104" s="29">
+        <v>1996</v>
+      </c>
       <c r="X104" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AD104" s="29" t="s">
-        <v>321</v>
+      <c r="AE104" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6620,7 +6626,7 @@
         <v>62</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N105" s="1">
         <v>298.14999999999998</v>
@@ -6706,7 +6712,7 @@
         <v>62</v>
       </c>
       <c r="M107" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N107" s="29">
         <v>298.14999999999998</v>
@@ -6722,11 +6728,14 @@
         <v>-74</v>
       </c>
       <c r="T107" s="32"/>
+      <c r="W107" s="29">
+        <v>1996</v>
+      </c>
       <c r="X107" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AD107" s="29" t="s">
-        <v>321</v>
+      <c r="AE107" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6749,7 +6758,7 @@
         <v>62</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N108" s="1">
         <v>298.14999999999998</v>
@@ -6878,7 +6887,7 @@
         <v>62</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N111" s="1">
         <v>298.14999999999998</v>
@@ -6964,7 +6973,7 @@
         <v>62</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N113" s="1">
         <v>298.14999999999998</v>
@@ -7050,7 +7059,7 @@
         <v>62</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N115" s="1">
         <v>298.14999999999998</v>
@@ -7133,10 +7142,10 @@
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N117" s="1">
         <v>298.14999999999998</v>
@@ -7176,7 +7185,7 @@
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>63</v>
@@ -8156,7 +8165,7 @@
         <v>2024</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF139" s="1" t="s">
         <v>253</v>
@@ -8203,44 +8212,44 @@
         <v>2024</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AF140" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" s="3"/>
-      <c r="P141" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q141" s="4">
+      <c r="B141" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" s="31"/>
+      <c r="P141" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q141" s="32">
         <v>-9.4</v>
       </c>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4">
+      <c r="R141" s="32"/>
+      <c r="S141" s="32">
         <v>-28.1</v>
       </c>
-      <c r="T141" s="4"/>
-      <c r="W141" s="1">
+      <c r="T141" s="32"/>
+      <c r="W141" s="29">
         <v>2020</v>
       </c>
-      <c r="X141" s="1" t="s">
+      <c r="X141" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AD141" s="1" t="s">
+      <c r="AD141" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="AE141" s="1" t="s">
+      <c r="AE141" s="29" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8388,7 +8397,7 @@
         <v>255</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8439,7 +8448,7 @@
         <v>255</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8490,7 +8499,7 @@
         <v>255</v>
       </c>
       <c r="AF146" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8541,7 +8550,7 @@
         <v>255</v>
       </c>
       <c r="AF147" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8592,7 +8601,7 @@
         <v>255</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8643,7 +8652,7 @@
         <v>255</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8694,12 +8703,12 @@
         <v>255</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>59</v>
@@ -8714,7 +8723,7 @@
         <v>4</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="1" t="s">
@@ -8741,12 +8750,12 @@
         <v>255</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>59</v>
@@ -8761,7 +8770,7 @@
         <v>4</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="1" t="s">
@@ -8788,12 +8797,12 @@
         <v>255</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>59</v>
@@ -8808,7 +8817,7 @@
         <v>4</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="1" t="s">
@@ -8835,12 +8844,12 @@
         <v>255</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>59</v>
@@ -8855,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="1" t="s">
@@ -8882,12 +8891,12 @@
         <v>255</v>
       </c>
       <c r="AF154" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>59</v>
@@ -8920,15 +8929,15 @@
         <v>2010</v>
       </c>
       <c r="X155" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF155" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>59</v>
@@ -8971,12 +8980,12 @@
         <v>2017</v>
       </c>
       <c r="X156" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>59</v>
@@ -9009,12 +9018,12 @@
         <v>2014</v>
       </c>
       <c r="X157" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>98</v>
@@ -9058,12 +9067,12 @@
         <v>2014</v>
       </c>
       <c r="X158" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>98</v>
@@ -9107,12 +9116,12 @@
         <v>2014</v>
       </c>
       <c r="X159" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>59</v>
@@ -9151,7 +9160,7 @@
         <v>2014</v>
       </c>
       <c r="X160" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9202,10 +9211,10 @@
         <v>2025</v>
       </c>
       <c r="X161" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF161" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9256,10 +9265,10 @@
         <v>2025</v>
       </c>
       <c r="X162" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF162" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="AF162" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9310,10 +9319,10 @@
         <v>2025</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9364,10 +9373,10 @@
         <v>2025</v>
       </c>
       <c r="X164" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9411,7 +9420,7 @@
         <v>2024</v>
       </c>
       <c r="X165" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9455,22 +9464,22 @@
         <v>2024</v>
       </c>
       <c r="X166" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB166" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="Y166" s="1" t="s">
+      <c r="AC166" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="Z166" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA166" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB166" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC166" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9514,7 +9523,7 @@
         <v>2024</v>
       </c>
       <c r="X167" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9558,7 +9567,7 @@
         <v>2024</v>
       </c>
       <c r="X168" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9602,7 +9611,7 @@
         <v>2024</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9646,7 +9655,7 @@
         <v>2024</v>
       </c>
       <c r="X170" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9690,7 +9699,7 @@
         <v>2024</v>
       </c>
       <c r="X171" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -9717,7 +9726,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C2">
         <v>8.3140000000000001</v>
@@ -9725,7 +9734,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C3" s="23">
         <v>4.1840000000000002</v>
@@ -9743,7 +9752,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="E5" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F5" s="23">
         <v>-2.3610000000000002</v>
@@ -9757,7 +9766,7 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="E6" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F6" s="23">
         <v>-6.1356999999999999</v>
@@ -9779,6 +9788,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -10007,41 +10036,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
-    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10064,9 +10062,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
+    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/tropic/input_experimental.xlsx
+++ b/tests/tropic/input_experimental.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\rmrr\larest\larest-main\tests\tropic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\rmrr\larest\larest-dev\tests\tropic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457BBD31-0986-4F40-B2E1-70C9C8069AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48318B-1376-47FF-9694-699998185867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="-19520" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="-18960" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -1490,10 +1490,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9788,26 +9788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -10036,10 +10016,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
+    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10062,20 +10073,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
-    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/tropic/input_experimental.xlsx
+++ b/tests/tropic/input_experimental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\rmrr\larest\larest-dev\tests\tropic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B48318B-1376-47FF-9694-699998185867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC4D4D-E012-4C50-90B1-D570FAD2FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="-18960" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="654" yWindow="438" windowWidth="19110" windowHeight="11346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="318">
   <si>
     <t>monomer_smiles</t>
   </si>
@@ -1490,10 +1490,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
+      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1701,7 +1701,9 @@
       <c r="W2" s="1">
         <v>2002</v>
       </c>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AF2" s="1" t="s">
         <v>123</v>
       </c>
@@ -9788,6 +9790,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -10016,41 +10038,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
-    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10073,9 +10064,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
+    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tests/tropic/input_experimental.xlsx
+++ b/tests/tropic/input_experimental.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\rmrr\larest\larest-dev\tests\tropic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC4D4D-E012-4C50-90B1-D570FAD2FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D504328A-09CF-4E6E-B7DB-55664A03BB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="654" yWindow="438" windowWidth="19110" windowHeight="11346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1254" windowWidth="19926" windowHeight="11064" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$AL$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$AL$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="319">
   <si>
     <t>monomer_smiles</t>
   </si>
@@ -994,6 +995,9 @@
   </si>
   <si>
     <t>duplicate</t>
+  </si>
+  <si>
+    <t>original Lebedev</t>
   </si>
 </sst>
 </file>
@@ -1488,12 +1492,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL171"/>
+  <dimension ref="A1:AL172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomLeft" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2060,101 +2064,104 @@
       </c>
       <c r="T9" s="4"/>
       <c r="W9" s="1">
-        <v>2009</v>
+        <v>1982</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AD9" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>-27.4</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32">
+        <v>-65</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="W10" s="29">
+        <v>2009</v>
+      </c>
+      <c r="X10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="29" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="AE10" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="4">
         <v>0.4</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4">
         <v>-30.1</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="W10" s="1">
+      <c r="T11" s="4"/>
+      <c r="W11" s="1">
         <v>2009</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32">
-        <v>-29.9</v>
-      </c>
-      <c r="T11" s="32"/>
-      <c r="W11" s="29">
-        <v>2009</v>
-      </c>
-      <c r="X11" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD11" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE11" s="29" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>59</v>
@@ -2172,14 +2179,14 @@
         <v>62</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="32">
-        <v>-82.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R12" s="32"/>
       <c r="S12" s="32">
-        <v>-74</v>
+        <v>-29.9</v>
       </c>
       <c r="T12" s="32"/>
       <c r="W12" s="29">
@@ -2195,49 +2202,47 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4">
-        <v>18</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="W13" s="1">
-        <v>2025</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>67</v>
+    <row r="13" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>-82.3</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32">
+        <v>-74</v>
+      </c>
+      <c r="T13" s="32"/>
+      <c r="W13" s="29">
+        <v>2009</v>
+      </c>
+      <c r="X13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE13" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2245,7 +2250,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>1</v>
@@ -2271,11 +2276,11 @@
         <v>64</v>
       </c>
       <c r="Q14" s="4">
-        <v>-0.8</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T14" s="4"/>
       <c r="W14" s="1">
@@ -2287,10 +2292,10 @@
     </row>
     <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>1</v>
@@ -2316,11 +2321,11 @@
         <v>64</v>
       </c>
       <c r="Q15" s="4">
-        <v>-16.2</v>
+        <v>-0.8</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4">
-        <v>-13</v>
+        <v>16</v>
       </c>
       <c r="T15" s="4"/>
       <c r="W15" s="1">
@@ -2335,7 +2340,7 @@
         <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -2361,11 +2366,11 @@
         <v>64</v>
       </c>
       <c r="Q16" s="4">
-        <v>-0.9</v>
+        <v>-16.2</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4">
-        <v>2.7</v>
+        <v>-13</v>
       </c>
       <c r="T16" s="4"/>
       <c r="W16" s="1">
@@ -2377,10 +2382,10 @@
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>1</v>
@@ -2406,11 +2411,11 @@
         <v>64</v>
       </c>
       <c r="Q17" s="4">
-        <v>-12</v>
+        <v>-0.9</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4">
-        <v>-24</v>
+        <v>2.7</v>
       </c>
       <c r="T17" s="4"/>
       <c r="W17" s="1">
@@ -2425,7 +2430,7 @@
         <v>133</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>1</v>
@@ -2451,11 +2456,11 @@
         <v>64</v>
       </c>
       <c r="Q18" s="4">
-        <v>-4.2</v>
+        <v>-12</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4">
-        <v>-7.4</v>
+        <v>-24</v>
       </c>
       <c r="T18" s="4"/>
       <c r="W18" s="1">
@@ -2467,45 +2472,47 @@
     </row>
     <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>1.5</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="1">
-        <v>298.14999999999998</v>
+        <v>61</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="4">
-        <v>-20.9</v>
-      </c>
-      <c r="R19" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S19" s="4"/>
+        <v>-4.2</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <v>-7.4</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="W19" s="1">
-        <v>1980</v>
+        <v>2025</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2525,7 +2532,7 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>63</v>
@@ -2537,28 +2544,23 @@
         <v>66</v>
       </c>
       <c r="Q20" s="4">
-        <v>-34.5</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4">
-        <v>-76.2</v>
-      </c>
-      <c r="T20" s="4">
-        <v>10</v>
-      </c>
+        <v>-20.9</v>
+      </c>
+      <c r="R20" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="W20" s="1">
         <v>1980</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AD20" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>59</v>
@@ -2566,7 +2568,9 @@
       <c r="C21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K21" s="3"/>
@@ -2577,24 +2581,29 @@
         <v>63</v>
       </c>
       <c r="N21" s="1">
-        <v>298</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q21" s="4">
-        <v>-74.8</v>
+        <v>-34.5</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4">
-        <v>-54.4</v>
-      </c>
-      <c r="T21" s="4"/>
+        <v>-76.2</v>
+      </c>
+      <c r="T21" s="4">
+        <v>10</v>
+      </c>
       <c r="W21" s="1">
-        <v>1978</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>207</v>
+        <v>1980</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2615,7 +2624,7 @@
         <v>62</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="N22" s="1">
         <v>298</v>
@@ -2624,11 +2633,11 @@
         <v>66</v>
       </c>
       <c r="Q22" s="4">
-        <v>-82.3</v>
+        <v>-74.8</v>
       </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4">
-        <v>-74</v>
+        <v>-54.4</v>
       </c>
       <c r="T22" s="4"/>
       <c r="W22" s="1">
@@ -2640,7 +2649,7 @@
     </row>
     <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -2648,37 +2657,35 @@
       <c r="C23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="N23" s="1">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q23" s="4">
-        <v>10.82</v>
+        <v>-82.3</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4">
-        <v>23.3</v>
+        <v>-74</v>
       </c>
       <c r="T23" s="4"/>
       <c r="W23" s="1">
-        <v>1982</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>79</v>
+        <v>1978</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2704,7 +2711,7 @@
         <v>158</v>
       </c>
       <c r="N24" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>66</v>
@@ -2714,7 +2721,7 @@
       </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="T24" s="4"/>
       <c r="W24" s="1">
@@ -2744,20 +2751,20 @@
         <v>316</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="N25" s="1">
-        <v>298.14999999999998</v>
+        <v>200</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q25" s="4">
-        <v>-8.6999999999999993</v>
+        <v>10.82</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4">
-        <v>31.3</v>
+        <v>23.6</v>
       </c>
       <c r="T25" s="4"/>
       <c r="W25" s="1">
@@ -2765,9 +2772,6 @@
       </c>
       <c r="X25" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2793,17 +2797,17 @@
         <v>63</v>
       </c>
       <c r="N26" s="1">
-        <v>397</v>
+        <v>298.14999999999998</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q26" s="4">
-        <v>-2.1</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4">
-        <v>50.2</v>
+        <v>31.3</v>
       </c>
       <c r="T26" s="4"/>
       <c r="W26" s="1">
@@ -2818,7 +2822,7 @@
     </row>
     <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>59</v>
@@ -2826,7 +2830,9 @@
       <c r="C27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K27" s="3"/>
@@ -2837,24 +2843,27 @@
         <v>63</v>
       </c>
       <c r="N27" s="1">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q27" s="4">
-        <v>10</v>
+        <v>-2.1</v>
       </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4">
-        <v>41</v>
+        <v>50.2</v>
       </c>
       <c r="T27" s="4"/>
       <c r="W27" s="1">
-        <v>1983</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>182</v>
+        <v>1982</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2875,7 +2884,7 @@
         <v>316</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="N28" s="1">
         <v>298</v>
@@ -2884,11 +2893,11 @@
         <v>66</v>
       </c>
       <c r="Q28" s="4">
-        <v>-39</v>
+        <v>10</v>
       </c>
       <c r="R28" s="4"/>
       <c r="S28" s="4">
-        <v>-86</v>
+        <v>41</v>
       </c>
       <c r="T28" s="4"/>
       <c r="W28" s="1">
@@ -2913,23 +2922,23 @@
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="1" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="N29" s="1">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q29" s="4">
-        <v>3</v>
+        <v>-39</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4">
-        <v>23</v>
+        <v>-86</v>
       </c>
       <c r="T29" s="4"/>
       <c r="W29" s="1">
@@ -2941,7 +2950,7 @@
     </row>
     <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
@@ -2949,9 +2958,7 @@
       <c r="C30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>130</v>
       </c>
       <c r="K30" s="3"/>
@@ -2959,145 +2966,138 @@
         <v>62</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="1">
+        <v>370</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>3</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4">
+        <v>23</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="W30" s="1">
+        <v>1983</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N31" s="1">
         <v>298.14999999999998</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q31" s="4">
         <v>-19</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R31" s="4">
         <v>0.5</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S31" s="4">
         <v>-12</v>
       </c>
-      <c r="T30" s="4">
-        <v>1</v>
-      </c>
-      <c r="W30" s="1">
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
         <v>2015</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21">
-        <v>1</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="B32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" s="20">
+      <c r="L32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="20">
         <v>-9</v>
       </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20">
+      <c r="R32" s="20"/>
+      <c r="S32" s="20">
         <v>-23</v>
       </c>
-      <c r="T31" s="20"/>
-      <c r="W31" s="8">
+      <c r="T32" s="20"/>
+      <c r="W32" s="8">
         <v>2020</v>
       </c>
-      <c r="X31" s="9" t="s">
+      <c r="X32" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AD31" s="8" t="s">
+      <c r="AD32" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AE31" s="8" t="s">
+      <c r="AE32" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AF31" s="8" t="s">
+      <c r="AF32" s="8" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" s="1">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="2">
-        <v>-10.878400000000001</v>
-      </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="1">
-        <v>2023</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>98</v>
@@ -3132,7 +3132,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="2">
-        <v>-13.137760000000002</v>
+        <v>-10.878400000000001</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>98</v>
@@ -3182,7 +3182,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="2">
-        <v>-10.878400000000001</v>
+        <v>-13.137760000000002</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
@@ -3197,7 +3197,7 @@
     </row>
     <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>98</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>98</v>
@@ -3282,7 +3282,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="2">
-        <v>-4.0166399999999998</v>
+        <v>-10.878400000000001</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
@@ -3291,10 +3291,13 @@
       <c r="X36" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="AD36" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>98</v>
@@ -3329,7 +3332,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="2">
-        <v>-10.878400000000001</v>
+        <v>-4.0166399999999998</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
@@ -3338,13 +3341,10 @@
       <c r="X37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AD37" s="1" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>98</v>
@@ -3379,7 +3379,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="2">
-        <v>9.2466400000000011</v>
+        <v>-10.878400000000001</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3388,10 +3388,13 @@
       <c r="X38" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="AD38" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>98</v>
@@ -3426,7 +3429,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
       <c r="U39" s="2">
-        <v>-0.66944000000000004</v>
+        <v>9.2466400000000011</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="1">
@@ -3438,7 +3441,7 @@
     </row>
     <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>98</v>
@@ -3473,7 +3476,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="2">
-        <v>2.2175200000000004</v>
+        <v>-0.66944000000000004</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="1">
@@ -3485,7 +3488,7 @@
     </row>
     <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>98</v>
@@ -3520,7 +3523,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="2">
-        <v>-1.7154400000000001</v>
+        <v>2.2175200000000004</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
@@ -3532,7 +3535,7 @@
     </row>
     <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>98</v>
@@ -3567,7 +3570,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="2">
-        <v>1.50624</v>
+        <v>-1.7154400000000001</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
@@ -3579,7 +3582,7 @@
     </row>
     <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>98</v>
@@ -3614,7 +3617,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="2">
-        <v>4.1840000000000002E-2</v>
+        <v>1.50624</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
@@ -3626,7 +3629,7 @@
     </row>
     <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>98</v>
@@ -3661,7 +3664,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="2">
-        <v>10.54368</v>
+        <v>4.1840000000000002E-2</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
@@ -3673,7 +3676,7 @@
     </row>
     <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>98</v>
@@ -3708,7 +3711,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="2">
-        <v>4.1840000000000002E-2</v>
+        <v>10.54368</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -3720,7 +3723,7 @@
     </row>
     <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>98</v>
@@ -3755,7 +3758,7 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="2">
-        <v>7.9914399999999999</v>
+        <v>4.1840000000000002E-2</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
@@ -3767,7 +3770,7 @@
     </row>
     <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>98</v>
@@ -3802,7 +3805,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="2">
-        <v>1.50624</v>
+        <v>7.9914399999999999</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
@@ -3814,7 +3817,7 @@
     </row>
     <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>98</v>
@@ -3849,7 +3852,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="2">
-        <v>4.8115999999999994</v>
+        <v>1.50624</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
@@ -3861,7 +3864,7 @@
     </row>
     <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>98</v>
@@ -3896,7 +3899,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="2">
-        <v>10.167120000000001</v>
+        <v>4.8115999999999994</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
@@ -3908,22 +3911,22 @@
     </row>
     <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="1">
-        <v>2</v>
+      <c r="E50" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1" t="s">
@@ -3932,27 +3935,30 @@
       <c r="M50" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="N50" s="1">
+        <v>298.14999999999998</v>
+      </c>
       <c r="P50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>-14.5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="4">
-        <v>-48.1</v>
-      </c>
+      <c r="S50" s="4"/>
       <c r="T50" s="4"/>
+      <c r="U50" s="2">
+        <v>10.167120000000001</v>
+      </c>
+      <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -3961,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>4</v>
@@ -3980,11 +3986,11 @@
         <v>64</v>
       </c>
       <c r="Q51" s="4">
-        <v>-9.9</v>
+        <v>-14.5</v>
       </c>
       <c r="R51" s="4"/>
       <c r="S51" s="4">
-        <v>-44.2</v>
+        <v>-48.1</v>
       </c>
       <c r="T51" s="4"/>
       <c r="W51" s="1">
@@ -3996,7 +4002,7 @@
     </row>
     <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>59</v>
@@ -4005,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>4</v>
@@ -4024,11 +4030,11 @@
         <v>64</v>
       </c>
       <c r="Q52" s="4">
-        <v>-15.6</v>
+        <v>-9.9</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="4">
-        <v>-38.200000000000003</v>
+        <v>-44.2</v>
       </c>
       <c r="T52" s="4"/>
       <c r="W52" s="1">
@@ -4040,7 +4046,7 @@
     </row>
     <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>59</v>
@@ -4068,11 +4074,11 @@
         <v>64</v>
       </c>
       <c r="Q53" s="4">
-        <v>-10</v>
+        <v>-15.6</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="4">
-        <v>-32.6</v>
+        <v>-38.200000000000003</v>
       </c>
       <c r="T53" s="4"/>
       <c r="W53" s="1">
@@ -4084,7 +4090,7 @@
     </row>
     <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>59</v>
@@ -4092,15 +4098,14 @@
       <c r="C54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2" t="s">
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="1" t="s">
@@ -4113,30 +4118,23 @@
         <v>64</v>
       </c>
       <c r="Q54" s="4">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="R54" s="4">
-        <v>1.9</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="R54" s="4"/>
       <c r="S54" s="4">
-        <v>-23.9</v>
-      </c>
-      <c r="T54" s="4">
-        <v>5.9</v>
-      </c>
+        <v>-32.6</v>
+      </c>
+      <c r="T54" s="4"/>
       <c r="W54" s="1">
-        <v>2025</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF54" s="1" t="s">
-        <v>164</v>
+        <v>2024</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>59</v>
@@ -4144,44 +4142,51 @@
       <c r="C55" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
-        <v>9.11</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>130</v>
+      <c r="F55" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q55" s="4">
-        <v>-15.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="R55" s="4">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="S55" s="4">
-        <v>-45</v>
+        <v>-23.9</v>
       </c>
       <c r="T55" s="4">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="W55" s="1">
-        <v>2016</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2025</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>59</v>
@@ -4189,17 +4194,12 @@
       <c r="C56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
       <c r="G56" s="1">
         <v>9.11</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
       <c r="K56" s="3"/>
       <c r="L56" s="1" t="s">
         <v>62</v>
@@ -4207,49 +4207,31 @@
       <c r="M56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q56" s="4">
-        <v>-13</v>
+        <v>-15.8</v>
       </c>
       <c r="R56" s="4">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="S56" s="4">
-        <v>-34</v>
+        <v>-45</v>
       </c>
       <c r="T56" s="4">
-        <v>1</v>
-      </c>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
+        <v>2</v>
+      </c>
       <c r="W56" s="1">
         <v>2016</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
     </row>
     <row r="57" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>59</v>
@@ -4281,16 +4263,16 @@
         <v>64</v>
       </c>
       <c r="Q57" s="4">
-        <v>-19.3</v>
+        <v>-13</v>
       </c>
       <c r="R57" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S57" s="4">
-        <v>-62</v>
+        <v>-34</v>
       </c>
       <c r="T57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -4317,7 +4299,7 @@
     </row>
     <row r="58" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>59</v>
@@ -4329,7 +4311,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
-        <v>8.0299999999999994</v>
+        <v>9.11</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>130</v>
@@ -4349,16 +4331,16 @@
         <v>64</v>
       </c>
       <c r="Q58" s="4">
-        <v>-16.399999999999999</v>
+        <v>-19.3</v>
       </c>
       <c r="R58" s="4">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="S58" s="4">
-        <v>-55</v>
+        <v>-62</v>
       </c>
       <c r="T58" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -4385,7 +4367,7 @@
     </row>
     <row r="59" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
@@ -4397,7 +4379,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1">
-        <v>6.75</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>130</v>
@@ -4417,16 +4399,16 @@
         <v>64</v>
       </c>
       <c r="Q59" s="4">
-        <v>-18.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="R59" s="4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="S59" s="4">
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="T59" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -4451,9 +4433,9 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -4461,12 +4443,17 @@
       <c r="C60" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1">
-        <v>5.69</v>
+        <v>6.75</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="3"/>
       <c r="L60" s="1" t="s">
         <v>62</v>
@@ -4474,31 +4461,49 @@
       <c r="M60" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
       <c r="P60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q60" s="4">
-        <v>-17</v>
+        <v>-18.5</v>
       </c>
       <c r="R60" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S60" s="4">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="T60" s="4">
         <v>1</v>
       </c>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
       <c r="W60" s="1">
         <v>2016</v>
       </c>
       <c r="X60" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
     </row>
     <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>59</v>
@@ -4507,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>130</v>
@@ -4523,13 +4528,13 @@
         <v>64</v>
       </c>
       <c r="Q61" s="4">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="R61" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S61" s="4">
-        <v>-57</v>
+        <v>-55</v>
       </c>
       <c r="T61" s="4">
         <v>1</v>
@@ -4541,9 +4546,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>59</v>
@@ -4551,17 +4556,12 @@
       <c r="C62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
       <c r="G62" s="1">
-        <v>5.26</v>
+        <v>5.58</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
       <c r="K62" s="3"/>
       <c r="L62" s="1" t="s">
         <v>62</v>
@@ -4569,49 +4569,31 @@
       <c r="M62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
       <c r="P62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q62" s="4">
-        <v>-18.399999999999999</v>
+        <v>-18</v>
       </c>
       <c r="R62" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S62" s="4">
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="T62" s="4">
-        <v>2</v>
-      </c>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
+        <v>1</v>
+      </c>
       <c r="W62" s="1">
         <v>2016</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
-    </row>
-    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>59</v>
@@ -4619,12 +4601,17 @@
       <c r="C63" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="1">
-        <v>4.74</v>
+        <v>5.26</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="K63" s="3"/>
       <c r="L63" s="1" t="s">
         <v>62</v>
@@ -4632,31 +4619,49 @@
       <c r="M63" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q63" s="4">
-        <v>-18.7</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="R63" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S63" s="4">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="T63" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
       <c r="W63" s="1">
         <v>2016</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
     </row>
     <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>59</v>
@@ -4665,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="1">
-        <v>4.1500000000000004</v>
+        <v>4.74</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>130</v>
@@ -4681,16 +4686,16 @@
         <v>64</v>
       </c>
       <c r="Q64" s="4">
-        <v>-16.8</v>
+        <v>-18.7</v>
       </c>
       <c r="R64" s="4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S64" s="4">
-        <v>-55</v>
+        <v>-59</v>
       </c>
       <c r="T64" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W64" s="1">
         <v>2016</v>
@@ -4701,7 +4706,7 @@
     </row>
     <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>59</v>
@@ -4709,41 +4714,44 @@
       <c r="C65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
+      <c r="G65" s="1">
+        <v>4.1500000000000004</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="K65" s="3"/>
+      <c r="L65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="P65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q65" s="4">
+        <v>-16.8</v>
+      </c>
+      <c r="R65" s="4">
         <v>0.5</v>
       </c>
-      <c r="R65" s="4">
-        <v>0.1</v>
-      </c>
       <c r="S65" s="4">
-        <v>23</v>
+        <v>-55</v>
       </c>
       <c r="T65" s="4">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="W65" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>59</v>
@@ -4761,26 +4769,20 @@
         <v>89</v>
       </c>
       <c r="K66" s="3"/>
-      <c r="L66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="P66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q66" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R66" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S66" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T66" s="4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W66" s="1">
         <v>2019</v>
@@ -4789,108 +4791,108 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="29" t="s">
+    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>2</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S67" s="4">
+        <v>27</v>
+      </c>
+      <c r="T67" s="4">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1">
+        <v>2019</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" s="30">
+      <c r="B68" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="30">
         <v>8.76</v>
       </c>
-      <c r="H67" s="30" t="s">
+      <c r="H68" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K67" s="31"/>
-      <c r="L67" s="29" t="s">
+      <c r="K68" s="31"/>
+      <c r="L68" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M67" s="29" t="s">
+      <c r="M68" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="N67" s="29">
+      <c r="N68" s="29">
         <v>298.14999999999998</v>
       </c>
-      <c r="P67" s="29" t="s">
+      <c r="P68" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Q67" s="32">
+      <c r="Q68" s="32">
         <v>-19.3</v>
       </c>
-      <c r="R67" s="32">
+      <c r="R68" s="32">
         <v>0.5</v>
       </c>
-      <c r="S67" s="32">
+      <c r="S68" s="32">
         <v>-62</v>
       </c>
-      <c r="T67" s="32">
+      <c r="T68" s="32">
         <v>2</v>
       </c>
-      <c r="W67" s="29">
+      <c r="W68" s="29">
         <v>2025</v>
       </c>
-      <c r="X67" s="31" t="s">
+      <c r="X68" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AE67" s="29" t="s">
+      <c r="AE68" s="29" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2">
-        <v>8.61</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N68" s="1">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q68" s="4">
-        <v>-17.2</v>
-      </c>
-      <c r="R68" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="S68" s="4">
-        <v>-40.700000000000003</v>
-      </c>
-      <c r="T68" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="W68" s="1">
-        <v>2025</v>
-      </c>
-      <c r="X68" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>59</v>
@@ -4899,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>7.68</v>
+        <v>8.61</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>130</v>
@@ -4918,16 +4920,16 @@
         <v>65</v>
       </c>
       <c r="Q69" s="4">
-        <v>-25</v>
+        <v>-17.2</v>
       </c>
       <c r="R69" s="4">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="S69" s="4">
-        <v>-51.7</v>
+        <v>-40.700000000000003</v>
       </c>
       <c r="T69" s="4">
-        <v>0.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W69" s="1">
         <v>2025</v>
@@ -4938,7 +4940,7 @@
     </row>
     <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>59</v>
@@ -4946,89 +4948,93 @@
       <c r="C70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F70" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>116</v>
+      <c r="G70" s="2">
+        <v>7.68</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="N70" s="1">
+        <v>298.14999999999998</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q70" s="4">
+        <v>-25</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S70" s="4">
+        <v>-51.7</v>
+      </c>
+      <c r="T70" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="W70" s="1">
+        <v>2025</v>
+      </c>
+      <c r="X70" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" s="3"/>
+      <c r="L71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q71" s="4">
         <f>3.3*4.184</f>
         <v>13.8072</v>
       </c>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4">
+      <c r="R71" s="4"/>
+      <c r="S71" s="4">
         <f>14.8*4.184</f>
         <v>61.923200000000008</v>
-      </c>
-      <c r="T70" s="4"/>
-      <c r="W70" s="1">
-        <v>2022</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>3</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q71" s="4">
-        <v>-19.3</v>
-      </c>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4">
-        <v>-58.4</v>
       </c>
       <c r="T71" s="4"/>
       <c r="W71" s="1">
         <v>2022</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>59</v>
@@ -5037,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>4</v>
@@ -5056,11 +5062,11 @@
         <v>64</v>
       </c>
       <c r="Q72" s="4">
-        <v>-4.5</v>
+        <v>-19.3</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4">
-        <v>-26.2</v>
+        <v>-58.4</v>
       </c>
       <c r="T72" s="4"/>
       <c r="W72" s="1">
@@ -5072,7 +5078,7 @@
     </row>
     <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>59</v>
@@ -5080,28 +5086,31 @@
       <c r="C73" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G73" s="1">
-        <v>8.1999999999999993</v>
+      <c r="F73" s="1">
+        <v>5</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q73" s="4">
-        <v>-10.199999999999999</v>
+        <v>-4.5</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4">
-        <v>-39.9</v>
+        <v>-26.2</v>
       </c>
       <c r="T73" s="4"/>
       <c r="W73" s="1">
@@ -5113,7 +5122,7 @@
     </row>
     <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>59</v>
@@ -5121,31 +5130,28 @@
       <c r="C74" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F74" s="1">
-        <v>5</v>
+      <c r="G74" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q74" s="4">
-        <v>-4.9000000000000004</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="R74" s="4"/>
       <c r="S74" s="4">
-        <v>-23.7</v>
+        <v>-39.9</v>
       </c>
       <c r="T74" s="4"/>
       <c r="W74" s="1">
@@ -5157,7 +5163,7 @@
     </row>
     <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>59</v>
@@ -5185,11 +5191,11 @@
         <v>64</v>
       </c>
       <c r="Q75" s="4">
-        <v>-9.5</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="R75" s="4"/>
       <c r="S75" s="4">
-        <v>-30.8</v>
+        <v>-23.7</v>
       </c>
       <c r="T75" s="4"/>
       <c r="W75" s="1">
@@ -5201,7 +5207,7 @@
     </row>
     <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>59</v>
@@ -5209,51 +5215,43 @@
       <c r="C76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F76" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
+      <c r="F76" s="1">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q76" s="4">
-        <v>-16.8</v>
-      </c>
-      <c r="R76" s="4">
-        <v>1.6</v>
-      </c>
+        <v>-9.5</v>
+      </c>
+      <c r="R76" s="4"/>
       <c r="S76" s="4">
-        <v>-27.4</v>
-      </c>
-      <c r="T76" s="4">
-        <v>4.5999999999999996</v>
-      </c>
+        <v>-30.8</v>
+      </c>
+      <c r="T76" s="4"/>
       <c r="W76" s="1">
-        <v>2005</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF76" s="1" t="s">
-        <v>165</v>
+        <v>2022</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>59</v>
@@ -5262,46 +5260,50 @@
         <v>1</v>
       </c>
       <c r="F77" s="2">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q77" s="4">
-        <v>-15.6</v>
-      </c>
-      <c r="R77" s="4"/>
+        <v>-16.8</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1.6</v>
+      </c>
       <c r="S77" s="4">
-        <v>-40.4</v>
-      </c>
-      <c r="T77" s="4"/>
+        <v>-27.4</v>
+      </c>
+      <c r="T77" s="4">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="W77" s="1">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>59</v>
@@ -5309,11 +5311,15 @@
       <c r="C78" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="F78" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="1" t="s">
@@ -5326,30 +5332,26 @@
         <v>64</v>
       </c>
       <c r="Q78" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="R78" s="4">
-        <v>0.7</v>
-      </c>
+        <v>-15.6</v>
+      </c>
+      <c r="R78" s="4"/>
       <c r="S78" s="4">
-        <v>16</v>
-      </c>
-      <c r="T78" s="4">
-        <v>2</v>
-      </c>
+        <v>-40.4</v>
+      </c>
+      <c r="T78" s="4"/>
       <c r="W78" s="1">
-        <v>2004</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD78" s="1" t="s">
-        <v>183</v>
+        <v>2019</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF78" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>59</v>
@@ -5357,15 +5359,11 @@
       <c r="C79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="2">
-        <v>1</v>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="1" t="s">
@@ -5378,21 +5376,25 @@
         <v>64</v>
       </c>
       <c r="Q79" s="4">
-        <v>-22.9</v>
-      </c>
-      <c r="R79" s="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="R79" s="4">
+        <v>0.7</v>
+      </c>
       <c r="S79" s="4">
-        <v>-25.03</v>
-      </c>
-      <c r="T79" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="T79" s="4">
+        <v>2</v>
+      </c>
       <c r="W79" s="1">
-        <v>1990</v>
-      </c>
-      <c r="X79" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF79" s="1" t="s">
-        <v>154</v>
+        <v>2004</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -5405,27 +5407,32 @@
       <c r="C80" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q80" s="4">
-        <v>-29.1</v>
+        <v>-22.9</v>
       </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4">
-        <v>-40.74</v>
+        <v>-25.03</v>
       </c>
       <c r="T80" s="4"/>
       <c r="W80" s="1">
@@ -5434,10 +5441,13 @@
       <c r="X80" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="AF80" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="81" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>59</v>
@@ -5461,18 +5471,18 @@
         <v>64</v>
       </c>
       <c r="Q81" s="4">
-        <v>-15.8</v>
+        <v>-29.1</v>
       </c>
       <c r="R81" s="4"/>
       <c r="S81" s="4">
-        <v>-50.4</v>
+        <v>-40.74</v>
       </c>
       <c r="T81" s="4"/>
       <c r="W81" s="1">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -5486,9 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="2">
-        <v>10.9</v>
-      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
         <v>130</v>
       </c>
@@ -5503,33 +5511,23 @@
         <v>64</v>
       </c>
       <c r="Q82" s="4">
-        <v>-13.8</v>
-      </c>
-      <c r="R82" s="4">
-        <v>0.9</v>
-      </c>
+        <v>-15.8</v>
+      </c>
+      <c r="R82" s="4"/>
       <c r="S82" s="4">
-        <v>-45</v>
-      </c>
-      <c r="T82" s="4">
-        <v>2.5</v>
-      </c>
+        <v>-50.4</v>
+      </c>
+      <c r="T82" s="4"/>
       <c r="W82" s="1">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD82" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF82" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>59</v>
@@ -5538,7 +5536,9 @@
         <v>1</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="G83" s="2">
+        <v>10.9</v>
+      </c>
       <c r="H83" s="2" t="s">
         <v>130</v>
       </c>
@@ -5547,33 +5547,39 @@
         <v>62</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q83" s="4">
-        <v>-23.3</v>
+        <v>-13.8</v>
       </c>
       <c r="R83" s="4">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="S83" s="4">
-        <v>-22</v>
+        <v>-45</v>
       </c>
       <c r="T83" s="4">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="W83" s="1">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="AD83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF83" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>59</v>
@@ -5581,50 +5587,43 @@
       <c r="C84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F84" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q84" s="4">
-        <v>-21.3384</v>
-      </c>
-      <c r="R84" s="4"/>
+        <v>-23.3</v>
+      </c>
+      <c r="R84" s="4">
+        <v>1.5</v>
+      </c>
       <c r="S84" s="4">
-        <v>-43.932000000000002</v>
-      </c>
-      <c r="T84" s="4"/>
+        <v>-22</v>
+      </c>
+      <c r="T84" s="4">
+        <v>3.2</v>
+      </c>
       <c r="W84" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD84" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF84" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>59</v>
@@ -5633,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="2">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
@@ -5653,11 +5652,11 @@
         <v>64</v>
       </c>
       <c r="Q85" s="4">
-        <v>-16.736000000000001</v>
+        <v>-21.3384</v>
       </c>
       <c r="R85" s="4"/>
       <c r="S85" s="4">
-        <v>-40.584800000000001</v>
+        <v>-43.932000000000002</v>
       </c>
       <c r="T85" s="4"/>
       <c r="W85" s="1">
@@ -5670,12 +5669,12 @@
         <v>145</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>59</v>
@@ -5704,11 +5703,11 @@
         <v>64</v>
       </c>
       <c r="Q86" s="4">
-        <v>-18.409600000000001</v>
+        <v>-16.736000000000001</v>
       </c>
       <c r="R86" s="4"/>
       <c r="S86" s="4">
-        <v>-45.605600000000003</v>
+        <v>-40.584800000000001</v>
       </c>
       <c r="T86" s="4"/>
       <c r="W86" s="1">
@@ -5721,12 +5720,12 @@
         <v>145</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>59</v>
@@ -5735,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
@@ -5755,11 +5754,11 @@
         <v>64</v>
       </c>
       <c r="Q87" s="4">
-        <v>-5.0208000000000004</v>
+        <v>-18.409600000000001</v>
       </c>
       <c r="R87" s="4"/>
       <c r="S87" s="4">
-        <v>-10.041600000000001</v>
+        <v>-45.605600000000003</v>
       </c>
       <c r="T87" s="4"/>
       <c r="W87" s="1">
@@ -5772,12 +5771,12 @@
         <v>145</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>59</v>
@@ -5786,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="2">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
@@ -5806,11 +5805,11 @@
         <v>64</v>
       </c>
       <c r="Q88" s="4">
-        <v>-26.359200000000001</v>
+        <v>-5.0208000000000004</v>
       </c>
       <c r="R88" s="4"/>
       <c r="S88" s="4">
-        <v>-44.768799999999999</v>
+        <v>-10.041600000000001</v>
       </c>
       <c r="T88" s="4"/>
       <c r="W88" s="1">
@@ -5823,12 +5822,12 @@
         <v>145</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>59</v>
@@ -5836,45 +5835,50 @@
       <c r="C89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2">
-        <v>5.6</v>
-      </c>
+      <c r="F89" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q89" s="4">
-        <v>-17.100000000000001</v>
-      </c>
-      <c r="R89" s="4">
-        <v>0.6</v>
-      </c>
+        <v>-26.359200000000001</v>
+      </c>
+      <c r="R89" s="4"/>
       <c r="S89" s="4">
-        <v>-54</v>
-      </c>
-      <c r="T89" s="4">
-        <v>2</v>
-      </c>
+        <v>-44.768799999999999</v>
+      </c>
+      <c r="T89" s="4"/>
       <c r="W89" s="1">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="X89" s="3" t="s">
-        <v>85</v>
+        <v>137</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF89" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>59</v>
@@ -5882,47 +5886,45 @@
       <c r="C90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F90" s="2">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2">
+        <v>5.6</v>
+      </c>
       <c r="H90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q90" s="4">
-        <v>-5.4</v>
-      </c>
-      <c r="R90" s="4"/>
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="R90" s="4">
+        <v>0.6</v>
+      </c>
       <c r="S90" s="4">
-        <v>-39.6</v>
-      </c>
-      <c r="T90" s="4"/>
+        <v>-54</v>
+      </c>
+      <c r="T90" s="4">
+        <v>2</v>
+      </c>
       <c r="W90" s="1">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="X90" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF90" s="1" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>59</v>
@@ -5930,13 +5932,15 @@
       <c r="C91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F91" s="2"/>
+      <c r="F91" s="2">
+        <v>10</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="1" t="s">
@@ -5949,23 +5953,26 @@
         <v>64</v>
       </c>
       <c r="Q91" s="4">
-        <v>-18</v>
+        <v>-5.4</v>
       </c>
       <c r="R91" s="4"/>
       <c r="S91" s="4">
-        <v>-65</v>
+        <v>-39.6</v>
       </c>
       <c r="T91" s="4"/>
       <c r="W91" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="AF91" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>59</v>
@@ -5973,15 +5980,13 @@
       <c r="C92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="2">
-        <v>6</v>
-      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="1" t="s">
@@ -5994,26 +5999,23 @@
         <v>64</v>
       </c>
       <c r="Q92" s="4">
-        <v>-17.100000000000001</v>
+        <v>-18</v>
       </c>
       <c r="R92" s="4"/>
       <c r="S92" s="4">
-        <v>-54.4</v>
+        <v>-65</v>
       </c>
       <c r="T92" s="4"/>
       <c r="W92" s="1">
-        <v>2024</v>
-      </c>
-      <c r="X92" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF92" s="1" t="s">
-        <v>170</v>
+        <v>2013</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>59</v>
@@ -6042,26 +6044,26 @@
         <v>64</v>
       </c>
       <c r="Q93" s="4">
-        <v>-12.2</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="R93" s="4"/>
       <c r="S93" s="4">
-        <v>-40.1</v>
+        <v>-54.4</v>
       </c>
       <c r="T93" s="4"/>
       <c r="W93" s="1">
         <v>2024</v>
       </c>
-      <c r="X93" s="3" t="s">
+      <c r="X93" s="17" t="s">
         <v>80</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>59</v>
@@ -6069,10 +6071,8 @@
       <c r="C94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
       <c r="F94" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
@@ -6081,7 +6081,6 @@
       <c r="I94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J94" s="1"/>
       <c r="K94" s="3"/>
       <c r="L94" s="1" t="s">
         <v>61</v>
@@ -6089,47 +6088,30 @@
       <c r="M94" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
       <c r="P94" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q94" s="4">
-        <v>-12</v>
+        <v>-12.2</v>
       </c>
       <c r="R94" s="4"/>
       <c r="S94" s="4">
-        <v>-27.2</v>
+        <v>-40.1</v>
       </c>
       <c r="T94" s="4"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
       <c r="W94" s="1">
         <v>2024</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="1"/>
       <c r="AF94" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
-      <c r="AK94" s="1"/>
-      <c r="AL94" s="1"/>
-    </row>
-    <row r="95" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>59</v>
@@ -6137,6 +6119,8 @@
       <c r="C95" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
       <c r="F95" s="2">
         <v>1</v>
       </c>
@@ -6147,6 +6131,7 @@
       <c r="I95" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="J95" s="1"/>
       <c r="K95" s="3"/>
       <c r="L95" s="1" t="s">
         <v>61</v>
@@ -6154,30 +6139,47 @@
       <c r="M95" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
       <c r="P95" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q95" s="4">
-        <v>-10.9</v>
+        <v>-12</v>
       </c>
       <c r="R95" s="4"/>
       <c r="S95" s="4">
-        <v>-22.5</v>
+        <v>-27.2</v>
       </c>
       <c r="T95" s="4"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
       <c r="W95" s="1">
         <v>2024</v>
       </c>
       <c r="X95" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
       <c r="AF95" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
     </row>
     <row r="96" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>59</v>
@@ -6206,11 +6208,11 @@
         <v>64</v>
       </c>
       <c r="Q96" s="4">
-        <v>-11.4</v>
+        <v>-10.9</v>
       </c>
       <c r="R96" s="4"/>
       <c r="S96" s="4">
-        <v>-23.3</v>
+        <v>-22.5</v>
       </c>
       <c r="T96" s="4"/>
       <c r="W96" s="1">
@@ -6220,12 +6222,12 @@
         <v>80</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>59</v>
@@ -6233,8 +6235,6 @@
       <c r="C97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
       <c r="F97" s="2">
         <v>1</v>
       </c>
@@ -6245,7 +6245,6 @@
       <c r="I97" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J97" s="1"/>
       <c r="K97" s="3"/>
       <c r="L97" s="1" t="s">
         <v>61</v>
@@ -6253,47 +6252,30 @@
       <c r="M97" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
       <c r="P97" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q97" s="4">
-        <v>-12.9</v>
+        <v>-11.4</v>
       </c>
       <c r="R97" s="4"/>
       <c r="S97" s="4">
-        <v>-27.7</v>
+        <v>-23.3</v>
       </c>
       <c r="T97" s="4"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
       <c r="W97" s="1">
         <v>2024</v>
       </c>
       <c r="X97" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="1"/>
       <c r="AF97" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG97" s="1"/>
-      <c r="AH97" s="1"/>
-      <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
-      <c r="AK97" s="1"/>
-      <c r="AL97" s="1"/>
-    </row>
-    <row r="98" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>59</v>
@@ -6301,6 +6283,8 @@
       <c r="C98" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
       <c r="F98" s="2">
         <v>1</v>
       </c>
@@ -6311,6 +6295,7 @@
       <c r="I98" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="J98" s="1"/>
       <c r="K98" s="3"/>
       <c r="L98" s="1" t="s">
         <v>61</v>
@@ -6318,30 +6303,47 @@
       <c r="M98" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
       <c r="P98" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q98" s="4">
-        <v>-12.1</v>
+        <v>-12.9</v>
       </c>
       <c r="R98" s="4"/>
       <c r="S98" s="4">
-        <v>-25.9</v>
+        <v>-27.7</v>
       </c>
       <c r="T98" s="4"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
       <c r="W98" s="1">
         <v>2024</v>
       </c>
       <c r="X98" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
       <c r="AF98" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
     </row>
     <row r="99" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>59</v>
@@ -6370,11 +6372,11 @@
         <v>64</v>
       </c>
       <c r="Q99" s="4">
-        <v>-13.3</v>
+        <v>-12.1</v>
       </c>
       <c r="R99" s="4"/>
       <c r="S99" s="4">
-        <v>-27.5</v>
+        <v>-25.9</v>
       </c>
       <c r="T99" s="4"/>
       <c r="W99" s="1">
@@ -6384,12 +6386,12 @@
         <v>80</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>59</v>
@@ -6397,42 +6399,47 @@
       <c r="C100" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="1" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N100" s="1">
-        <v>298.14999999999998</v>
+        <v>61</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q100" s="4">
-        <v>-17</v>
+        <v>-13.3</v>
       </c>
       <c r="R100" s="4"/>
       <c r="S100" s="4">
-        <v>-3.2</v>
+        <v>-27.5</v>
       </c>
       <c r="T100" s="4"/>
       <c r="W100" s="1">
-        <v>1996</v>
+        <v>2024</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="AF100" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>59</v>
@@ -6447,7 +6454,7 @@
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="1" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>316</v>
@@ -6459,11 +6466,11 @@
         <v>66</v>
       </c>
       <c r="Q101" s="4">
-        <v>-35</v>
+        <v>-17</v>
       </c>
       <c r="R101" s="4"/>
       <c r="S101" s="4">
-        <v>-76</v>
+        <v>-3.2</v>
       </c>
       <c r="T101" s="4"/>
       <c r="W101" s="1">
@@ -6475,7 +6482,7 @@
     </row>
     <row r="102" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>59</v>
@@ -6502,11 +6509,11 @@
         <v>66</v>
       </c>
       <c r="Q102" s="4">
-        <v>-84</v>
+        <v>-35</v>
       </c>
       <c r="R102" s="4"/>
       <c r="S102" s="4">
-        <v>-74</v>
+        <v>-76</v>
       </c>
       <c r="T102" s="4"/>
       <c r="W102" s="1">
@@ -6516,50 +6523,47 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30" t="s">
+    <row r="103" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K103" s="31"/>
-      <c r="L103" s="29" t="s">
+      <c r="K103" s="3"/>
+      <c r="L103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M103" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="N103" s="29">
+      <c r="N103" s="1">
         <v>298.14999999999998</v>
       </c>
-      <c r="P103" s="29" t="s">
+      <c r="P103" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q103" s="32">
-        <v>-39</v>
-      </c>
-      <c r="R103" s="32"/>
-      <c r="S103" s="32">
-        <v>-86</v>
-      </c>
-      <c r="T103" s="32"/>
-      <c r="W103" s="29">
+      <c r="Q103" s="4">
+        <v>-84</v>
+      </c>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4">
+        <v>-74</v>
+      </c>
+      <c r="T103" s="4"/>
+      <c r="W103" s="1">
         <v>1996</v>
       </c>
-      <c r="X103" s="31" t="s">
+      <c r="X103" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AE103" s="29" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6582,7 +6586,7 @@
         <v>316</v>
       </c>
       <c r="M104" s="29" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N104" s="29">
         <v>298.14999999999998</v>
@@ -6591,11 +6595,11 @@
         <v>66</v>
       </c>
       <c r="Q104" s="32">
-        <v>10</v>
+        <v>-39</v>
       </c>
       <c r="R104" s="32"/>
       <c r="S104" s="32">
-        <v>41</v>
+        <v>-86</v>
       </c>
       <c r="T104" s="32"/>
       <c r="W104" s="29">
@@ -6608,47 +6612,50 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K105" s="31"/>
+      <c r="L105" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="M105" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N105" s="29">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="P105" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q105" s="32">
+        <v>10</v>
+      </c>
+      <c r="R105" s="32"/>
+      <c r="S105" s="32">
         <v>41</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K105" s="3"/>
-      <c r="L105" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N105" s="1">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q105" s="4">
-        <v>-62</v>
-      </c>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4">
-        <v>-69</v>
-      </c>
-      <c r="T105" s="4"/>
-      <c r="W105" s="1">
+      <c r="T105" s="32"/>
+      <c r="W105" s="29">
         <v>1996</v>
       </c>
-      <c r="X105" s="3" t="s">
+      <c r="X105" s="31" t="s">
         <v>71</v>
+      </c>
+      <c r="AE105" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6671,7 +6678,7 @@
         <v>62</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N106" s="1">
         <v>298.14999999999998</v>
@@ -6680,11 +6687,11 @@
         <v>66</v>
       </c>
       <c r="Q106" s="4">
-        <v>-28</v>
+        <v>-62</v>
       </c>
       <c r="R106" s="4"/>
       <c r="S106" s="4">
-        <v>24</v>
+        <v>-69</v>
       </c>
       <c r="T106" s="4"/>
       <c r="W106" s="1">
@@ -6694,93 +6701,93 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="29" t="s">
+    <row r="107" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K107" s="3"/>
+      <c r="L107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N107" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>-28</v>
+      </c>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4">
+        <v>24</v>
+      </c>
+      <c r="T107" s="4"/>
+      <c r="W107" s="1">
+        <v>1996</v>
+      </c>
+      <c r="X107" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30" t="s">
+      <c r="B108" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K107" s="31"/>
-      <c r="L107" s="29" t="s">
+      <c r="K108" s="31"/>
+      <c r="L108" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M107" s="29" t="s">
+      <c r="M108" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="N107" s="29">
+      <c r="N108" s="29">
         <v>298.14999999999998</v>
       </c>
-      <c r="P107" s="29" t="s">
+      <c r="P108" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Q107" s="32">
+      <c r="Q108" s="32">
         <v>-82.3</v>
       </c>
-      <c r="R107" s="32"/>
-      <c r="S107" s="32">
+      <c r="R108" s="32"/>
+      <c r="S108" s="32">
         <v>-74</v>
       </c>
-      <c r="T107" s="32"/>
-      <c r="W107" s="29">
+      <c r="T108" s="32"/>
+      <c r="W108" s="29">
         <v>1996</v>
       </c>
-      <c r="X107" s="31" t="s">
+      <c r="X108" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AE107" s="29" t="s">
+      <c r="AE108" s="29" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="108" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="N108" s="1">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q108" s="4">
-        <v>-7</v>
-      </c>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4">
-        <v>-65</v>
-      </c>
-      <c r="T108" s="4"/>
-      <c r="W108" s="1">
-        <v>1996</v>
-      </c>
-      <c r="X108" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6803,7 +6810,7 @@
         <v>62</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N109" s="1">
         <v>298.14999999999998</v>
@@ -6812,11 +6819,11 @@
         <v>66</v>
       </c>
       <c r="Q109" s="4">
-        <v>5.0999999999999996</v>
+        <v>-7</v>
       </c>
       <c r="R109" s="4"/>
       <c r="S109" s="4">
-        <v>-29.9</v>
+        <v>-65</v>
       </c>
       <c r="T109" s="4"/>
       <c r="W109" s="1">
@@ -6828,7 +6835,7 @@
     </row>
     <row r="110" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>59</v>
@@ -6855,11 +6862,11 @@
         <v>66</v>
       </c>
       <c r="Q110" s="4">
-        <v>-10.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="R110" s="4"/>
       <c r="S110" s="4">
-        <v>-15</v>
+        <v>-29.9</v>
       </c>
       <c r="T110" s="4"/>
       <c r="W110" s="1">
@@ -6871,7 +6878,7 @@
     </row>
     <row r="111" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>59</v>
@@ -6889,7 +6896,7 @@
         <v>62</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="N111" s="1">
         <v>298.14999999999998</v>
@@ -6898,11 +6905,11 @@
         <v>66</v>
       </c>
       <c r="Q111" s="4">
-        <v>-31</v>
+        <v>-10.5</v>
       </c>
       <c r="R111" s="4"/>
       <c r="S111" s="4">
-        <v>-54</v>
+        <v>-15</v>
       </c>
       <c r="T111" s="4"/>
       <c r="W111" s="1">
@@ -6932,7 +6939,7 @@
         <v>62</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N112" s="1">
         <v>298.14999999999998</v>
@@ -6941,11 +6948,11 @@
         <v>66</v>
       </c>
       <c r="Q112" s="4">
-        <v>-17</v>
+        <v>-31</v>
       </c>
       <c r="R112" s="4"/>
       <c r="S112" s="4">
-        <v>-4</v>
+        <v>-54</v>
       </c>
       <c r="T112" s="4"/>
       <c r="W112" s="1">
@@ -6957,7 +6964,7 @@
     </row>
     <row r="113" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>59</v>
@@ -6975,7 +6982,7 @@
         <v>62</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="N113" s="1">
         <v>298.14999999999998</v>
@@ -6984,11 +6991,11 @@
         <v>66</v>
       </c>
       <c r="Q113" s="4">
-        <v>-37</v>
+        <v>-17</v>
       </c>
       <c r="R113" s="4"/>
       <c r="S113" s="4">
-        <v>-60</v>
+        <v>-4</v>
       </c>
       <c r="T113" s="4"/>
       <c r="W113" s="1">
@@ -7018,7 +7025,7 @@
         <v>62</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N114" s="1">
         <v>298.14999999999998</v>
@@ -7027,11 +7034,11 @@
         <v>66</v>
       </c>
       <c r="Q114" s="4">
-        <v>-19</v>
+        <v>-37</v>
       </c>
       <c r="R114" s="4"/>
       <c r="S114" s="4">
-        <v>2</v>
+        <v>-60</v>
       </c>
       <c r="T114" s="4"/>
       <c r="W114" s="1">
@@ -7043,7 +7050,7 @@
     </row>
     <row r="115" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>59</v>
@@ -7061,7 +7068,7 @@
         <v>62</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="N115" s="1">
         <v>298.14999999999998</v>
@@ -7070,11 +7077,11 @@
         <v>66</v>
       </c>
       <c r="Q115" s="4">
-        <v>-43</v>
+        <v>-19</v>
       </c>
       <c r="R115" s="4"/>
       <c r="S115" s="4">
-        <v>-61</v>
+        <v>2</v>
       </c>
       <c r="T115" s="4"/>
       <c r="W115" s="1">
@@ -7104,7 +7111,7 @@
         <v>62</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N116" s="1">
         <v>298.14999999999998</v>
@@ -7113,11 +7120,11 @@
         <v>66</v>
       </c>
       <c r="Q116" s="4">
-        <v>-21</v>
+        <v>-43</v>
       </c>
       <c r="R116" s="4"/>
       <c r="S116" s="4">
-        <v>7</v>
+        <v>-61</v>
       </c>
       <c r="T116" s="4"/>
       <c r="W116" s="1">
@@ -7129,7 +7136,7 @@
     </row>
     <row r="117" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>59</v>
@@ -7144,10 +7151,10 @@
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="1" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>316</v>
+        <v>63</v>
       </c>
       <c r="N117" s="1">
         <v>298.14999999999998</v>
@@ -7156,11 +7163,11 @@
         <v>66</v>
       </c>
       <c r="Q117" s="4">
-        <v>-38</v>
+        <v>-21</v>
       </c>
       <c r="R117" s="4"/>
       <c r="S117" s="4">
-        <v>-50</v>
+        <v>7</v>
       </c>
       <c r="T117" s="4"/>
       <c r="W117" s="1">
@@ -7190,7 +7197,7 @@
         <v>316</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="N118" s="1">
         <v>298.14999999999998</v>
@@ -7199,11 +7206,11 @@
         <v>66</v>
       </c>
       <c r="Q118" s="4">
-        <v>2</v>
+        <v>-38</v>
       </c>
       <c r="R118" s="4"/>
       <c r="S118" s="4">
-        <v>57</v>
+        <v>-50</v>
       </c>
       <c r="T118" s="4"/>
       <c r="W118" s="1">
@@ -7215,7 +7222,7 @@
     </row>
     <row r="119" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>59</v>
@@ -7230,36 +7237,35 @@
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="1" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="N119" s="1">
+        <v>298.14999999999998</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q119" s="4">
-        <v>-13.8</v>
-      </c>
-      <c r="R119" s="4">
-        <v>0.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R119" s="4"/>
       <c r="S119" s="4">
-        <v>-46</v>
-      </c>
-      <c r="T119" s="4">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T119" s="4"/>
       <c r="W119" s="1">
-        <v>2014</v>
+        <v>1996</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>59</v>
@@ -7277,32 +7283,33 @@
         <v>62</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N120" s="1">
-        <v>298.14999999999998</v>
+        <v>62</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q120" s="4">
-        <v>-33.409999999999997</v>
-      </c>
-      <c r="R120" s="4"/>
+        <v>-13.8</v>
+      </c>
+      <c r="R120" s="4">
+        <v>0.3</v>
+      </c>
       <c r="S120" s="4">
-        <v>-42.69</v>
-      </c>
-      <c r="T120" s="4"/>
+        <v>-46</v>
+      </c>
+      <c r="T120" s="4">
+        <v>1</v>
+      </c>
       <c r="W120" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>59</v>
@@ -7313,39 +7320,39 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="N121" s="1">
+        <v>298.14999999999998</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q121" s="4">
-        <v>-20</v>
+        <v>-33.409999999999997</v>
       </c>
       <c r="R121" s="4"/>
       <c r="S121" s="4">
-        <v>-72</v>
+        <v>-42.69</v>
       </c>
       <c r="T121" s="4"/>
       <c r="W121" s="1">
         <v>2018</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>59</v>
@@ -7353,15 +7360,13 @@
       <c r="C122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F122" s="2">
-        <v>5</v>
-      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="1" t="s">
@@ -7374,26 +7379,23 @@
         <v>64</v>
       </c>
       <c r="Q122" s="4">
-        <v>-5.9</v>
+        <v>-20</v>
       </c>
       <c r="R122" s="4"/>
       <c r="S122" s="4">
-        <v>-40.1</v>
+        <v>-72</v>
       </c>
       <c r="T122" s="4"/>
       <c r="W122" s="1">
-        <v>2016</v>
-      </c>
-      <c r="X122" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF122" s="1" t="s">
-        <v>212</v>
+        <v>2018</v>
+      </c>
+      <c r="X122" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>59</v>
@@ -7401,14 +7403,15 @@
       <c r="C123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F123" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="F123" s="2">
+        <v>5</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="1" t="s">
@@ -7421,23 +7424,26 @@
         <v>64</v>
       </c>
       <c r="Q123" s="4">
-        <v>-21.1</v>
+        <v>-5.9</v>
       </c>
       <c r="R123" s="4"/>
       <c r="S123" s="4">
-        <v>-55.8</v>
+        <v>-40.1</v>
       </c>
       <c r="T123" s="4"/>
       <c r="W123" s="1">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="X123" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="AF123" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
@@ -7446,13 +7452,13 @@
         <v>1</v>
       </c>
       <c r="F124" s="1">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="1" t="s">
@@ -7465,26 +7471,23 @@
         <v>64</v>
       </c>
       <c r="Q124" s="4">
-        <v>-10</v>
+        <v>-21.1</v>
       </c>
       <c r="R124" s="4"/>
       <c r="S124" s="4">
-        <v>-20.100000000000001</v>
+        <v>-55.8</v>
       </c>
       <c r="T124" s="4"/>
       <c r="W124" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF124" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>59</v>
@@ -7493,13 +7496,13 @@
         <v>1</v>
       </c>
       <c r="F125" s="1">
-        <v>2</v>
+        <v>0.96</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="1" t="s">
@@ -7512,26 +7515,26 @@
         <v>64</v>
       </c>
       <c r="Q125" s="4">
-        <v>-16.5</v>
+        <v>-10</v>
       </c>
       <c r="R125" s="4"/>
       <c r="S125" s="4">
-        <v>-45.1</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="T125" s="4"/>
       <c r="W125" s="1">
         <v>2022</v>
       </c>
       <c r="X125" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF125" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>59</v>
@@ -7540,13 +7543,13 @@
         <v>1</v>
       </c>
       <c r="F126" s="1">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="1" t="s">
@@ -7559,23 +7562,26 @@
         <v>64</v>
       </c>
       <c r="Q126" s="4">
-        <v>-4.92</v>
+        <v>-16.5</v>
       </c>
       <c r="R126" s="4"/>
       <c r="S126" s="4">
-        <v>-23.86</v>
+        <v>-45.1</v>
       </c>
       <c r="T126" s="4"/>
       <c r="W126" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="X126" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="AF126" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>59</v>
@@ -7584,13 +7590,13 @@
         <v>1</v>
       </c>
       <c r="F127" s="1">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="1" t="s">
@@ -7603,23 +7609,23 @@
         <v>64</v>
       </c>
       <c r="Q127" s="4">
-        <v>-3.1</v>
+        <v>-4.92</v>
       </c>
       <c r="R127" s="4"/>
       <c r="S127" s="4">
-        <v>-14</v>
+        <v>-23.86</v>
       </c>
       <c r="T127" s="4"/>
       <c r="W127" s="1">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="X127" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>59</v>
@@ -7628,13 +7634,13 @@
         <v>1</v>
       </c>
       <c r="F128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="K128" s="3"/>
       <c r="L128" s="1" t="s">
@@ -7647,23 +7653,23 @@
         <v>64</v>
       </c>
       <c r="Q128" s="4">
-        <v>-12.3</v>
+        <v>-3.1</v>
       </c>
       <c r="R128" s="4"/>
       <c r="S128" s="4">
-        <v>-32.6</v>
+        <v>-14</v>
       </c>
       <c r="T128" s="4"/>
       <c r="W128" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="X128" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>59</v>
@@ -7678,7 +7684,7 @@
         <v>4</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K129" s="3"/>
       <c r="L129" s="1" t="s">
@@ -7691,26 +7697,23 @@
         <v>64</v>
       </c>
       <c r="Q129" s="4">
-        <v>-10.56</v>
+        <v>-12.3</v>
       </c>
       <c r="R129" s="4"/>
       <c r="S129" s="4">
-        <v>-20.45</v>
+        <v>-32.6</v>
       </c>
       <c r="T129" s="4"/>
       <c r="W129" s="1">
         <v>2024</v>
       </c>
       <c r="X129" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF129" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>59</v>
@@ -7725,7 +7728,7 @@
         <v>4</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="1" t="s">
@@ -7738,23 +7741,26 @@
         <v>64</v>
       </c>
       <c r="Q130" s="4">
-        <v>-8.6999999999999993</v>
+        <v>-10.56</v>
       </c>
       <c r="R130" s="4"/>
       <c r="S130" s="4">
-        <v>-3.8</v>
+        <v>-20.45</v>
       </c>
       <c r="T130" s="4"/>
       <c r="W130" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="X130" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="AF130" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>59</v>
@@ -7782,11 +7788,11 @@
         <v>64</v>
       </c>
       <c r="Q131" s="4">
-        <v>-14.2</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="R131" s="4"/>
       <c r="S131" s="4">
-        <v>-9.5</v>
+        <v>-3.8</v>
       </c>
       <c r="T131" s="4"/>
       <c r="W131" s="1">
@@ -7798,7 +7804,7 @@
     </row>
     <row r="132" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>59</v>
@@ -7826,11 +7832,11 @@
         <v>64</v>
       </c>
       <c r="Q132" s="4">
-        <v>-12.6</v>
+        <v>-14.2</v>
       </c>
       <c r="R132" s="4"/>
       <c r="S132" s="4">
-        <v>-4.3</v>
+        <v>-9.5</v>
       </c>
       <c r="T132" s="4"/>
       <c r="W132" s="1">
@@ -7870,11 +7876,11 @@
         <v>64</v>
       </c>
       <c r="Q133" s="4">
-        <v>-17.5</v>
+        <v>-12.6</v>
       </c>
       <c r="R133" s="4"/>
       <c r="S133" s="4">
-        <v>-11.3</v>
+        <v>-4.3</v>
       </c>
       <c r="T133" s="4"/>
       <c r="W133" s="1">
@@ -7884,104 +7890,101 @@
         <v>217</v>
       </c>
     </row>
-    <row r="134" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="8" t="s">
+    <row r="134" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K134" s="3"/>
+      <c r="L134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q134" s="4">
+        <v>-17.5</v>
+      </c>
+      <c r="R134" s="4"/>
+      <c r="S134" s="4">
+        <v>-11.3</v>
+      </c>
+      <c r="T134" s="4"/>
+      <c r="W134" s="1">
+        <v>2023</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F134" s="8">
+      <c r="B135" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" s="8">
         <v>0.05</v>
       </c>
-      <c r="H134" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" s="8" t="s">
+      <c r="H135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K134" s="9"/>
-      <c r="L134" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M134" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P134" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q134" s="20">
+      <c r="K135" s="9"/>
+      <c r="L135" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P135" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q135" s="20">
         <v>-18.11</v>
       </c>
-      <c r="R134" s="20"/>
-      <c r="S134" s="20">
+      <c r="R135" s="20"/>
+      <c r="S135" s="20">
         <v>-8.65</v>
       </c>
-      <c r="T134" s="20"/>
-      <c r="W134" s="8">
+      <c r="T135" s="20"/>
+      <c r="W135" s="8">
         <v>2022</v>
       </c>
-      <c r="X134" s="8" t="s">
+      <c r="X135" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="AD134" s="8" t="s">
+      <c r="AD135" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="AE134" s="8" t="s">
+      <c r="AE135" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AF134" s="8" t="s">
+      <c r="AF135" s="8" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K135" s="3"/>
-      <c r="L135" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q135" s="4">
-        <v>-25.6</v>
-      </c>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4">
-        <v>-80</v>
-      </c>
-      <c r="T135" s="4"/>
-      <c r="W135" s="1">
-        <v>2022</v>
-      </c>
-      <c r="X135" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF135" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8001,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="1" t="s">
@@ -8014,11 +8017,11 @@
         <v>64</v>
       </c>
       <c r="Q136" s="4">
-        <v>-22</v>
+        <v>-25.6</v>
       </c>
       <c r="R136" s="4"/>
       <c r="S136" s="4">
-        <v>-61</v>
+        <v>-80</v>
       </c>
       <c r="T136" s="4"/>
       <c r="W136" s="1">
@@ -8028,12 +8031,12 @@
         <v>243</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>59</v>
@@ -8042,13 +8045,13 @@
         <v>1</v>
       </c>
       <c r="F137" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="1" t="s">
@@ -8061,26 +8064,26 @@
         <v>64</v>
       </c>
       <c r="Q137" s="4">
-        <v>-3.41</v>
+        <v>-22</v>
       </c>
       <c r="R137" s="4"/>
       <c r="S137" s="4">
-        <v>-15.7</v>
+        <v>-61</v>
       </c>
       <c r="T137" s="4"/>
       <c r="W137" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="X137" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>59</v>
@@ -8089,13 +8092,13 @@
         <v>1</v>
       </c>
       <c r="F138" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="1" t="s">
@@ -8108,27 +8111,26 @@
         <v>64</v>
       </c>
       <c r="Q138" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="R138" s="4">
-        <v>1.9</v>
-      </c>
+        <v>-3.41</v>
+      </c>
+      <c r="R138" s="4"/>
       <c r="S138" s="4">
-        <v>38.5</v>
-      </c>
-      <c r="T138" s="4">
-        <v>6.5</v>
-      </c>
+        <v>-15.7</v>
+      </c>
+      <c r="T138" s="4"/>
       <c r="W138" s="1">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="X138" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="AF138" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>59</v>
@@ -8137,13 +8139,13 @@
         <v>1</v>
       </c>
       <c r="F139" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="1" t="s">
@@ -8156,26 +8158,27 @@
         <v>64</v>
       </c>
       <c r="Q139" s="4">
-        <v>-25.8</v>
-      </c>
-      <c r="R139" s="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="R139" s="4">
+        <v>1.9</v>
+      </c>
       <c r="S139" s="4">
-        <v>-74.599999999999994</v>
-      </c>
-      <c r="T139" s="4"/>
+        <v>38.5</v>
+      </c>
+      <c r="T139" s="4">
+        <v>6.5</v>
+      </c>
       <c r="W139" s="1">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF139" s="1" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>59</v>
@@ -8184,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="F140" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>4</v>
@@ -8203,109 +8206,108 @@
         <v>64</v>
       </c>
       <c r="Q140" s="4">
-        <v>-24.8</v>
+        <v>-25.8</v>
       </c>
       <c r="R140" s="4"/>
       <c r="S140" s="4">
-        <v>-98.3</v>
+        <v>-74.599999999999994</v>
       </c>
       <c r="T140" s="4"/>
       <c r="W140" s="1">
         <v>2024</v>
       </c>
       <c r="X140" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF140" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K141" s="3"/>
+      <c r="L141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q141" s="4">
+        <v>-24.8</v>
+      </c>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4">
+        <v>-98.3</v>
+      </c>
+      <c r="T141" s="4"/>
+      <c r="W141" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X141" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AF140" s="1" t="s">
+      <c r="AF141" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="29" t="s">
+    <row r="142" spans="1:32" s="29" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="B141" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" s="31"/>
-      <c r="P141" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q141" s="32">
+      <c r="B142" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" s="31"/>
+      <c r="P142" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q142" s="32">
         <v>-9.4</v>
       </c>
-      <c r="R141" s="32"/>
-      <c r="S141" s="32">
+      <c r="R142" s="32"/>
+      <c r="S142" s="32">
         <v>-28.1</v>
       </c>
-      <c r="T141" s="32"/>
-      <c r="W141" s="29">
+      <c r="T142" s="32"/>
+      <c r="W142" s="29">
         <v>2020</v>
       </c>
-      <c r="X141" s="29" t="s">
+      <c r="X142" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="AD141" s="29" t="s">
+      <c r="AD142" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="AE141" s="29" t="s">
+      <c r="AE142" s="29" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K142" s="3"/>
-      <c r="L142" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q142" s="4">
-        <v>-10.16</v>
-      </c>
-      <c r="R142" s="4">
-        <v>2.88</v>
-      </c>
-      <c r="S142" s="4">
-        <v>-1.46</v>
-      </c>
-      <c r="T142" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="W142" s="1">
-        <v>2015</v>
-      </c>
-      <c r="X142" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>59</v>
@@ -8314,13 +8316,13 @@
         <v>1</v>
       </c>
       <c r="F143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="1" t="s">
@@ -8333,27 +8335,27 @@
         <v>64</v>
       </c>
       <c r="Q143" s="4">
-        <v>-24.2</v>
+        <v>-10.16</v>
       </c>
       <c r="R143" s="4">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="S143" s="4">
-        <v>-56.43</v>
+        <v>-1.46</v>
       </c>
       <c r="T143" s="4">
-        <v>4.18</v>
+        <v>0.92</v>
       </c>
       <c r="W143" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="X143" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>59</v>
@@ -8362,13 +8364,13 @@
         <v>1</v>
       </c>
       <c r="F144" s="1">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="K144" s="3"/>
       <c r="L144" s="1" t="s">
@@ -8381,30 +8383,27 @@
         <v>64</v>
       </c>
       <c r="Q144" s="4">
-        <v>-16.2</v>
+        <v>-24.2</v>
       </c>
       <c r="R144" s="4">
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="S144" s="4">
-        <v>-14.9</v>
+        <v>-56.43</v>
       </c>
       <c r="T144" s="4">
-        <v>3.58</v>
+        <v>4.18</v>
       </c>
       <c r="W144" s="1">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF144" s="1" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>59</v>
@@ -8432,16 +8431,16 @@
         <v>64</v>
       </c>
       <c r="Q145" s="4">
-        <v>-14</v>
+        <v>-16.2</v>
       </c>
       <c r="R145" s="4">
-        <v>0.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="S145" s="4">
-        <v>-14</v>
+        <v>-14.9</v>
       </c>
       <c r="T145" s="4">
-        <v>1.5</v>
+        <v>3.58</v>
       </c>
       <c r="W145" s="1">
         <v>2023</v>
@@ -8450,12 +8449,12 @@
         <v>255</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>59</v>
@@ -8464,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>4</v>
@@ -8483,16 +8482,16 @@
         <v>64</v>
       </c>
       <c r="Q146" s="4">
-        <v>-14.8</v>
+        <v>-14</v>
       </c>
       <c r="R146" s="4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="S146" s="4">
-        <v>-21.3</v>
+        <v>-14</v>
       </c>
       <c r="T146" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W146" s="1">
         <v>2023</v>
@@ -8501,12 +8500,12 @@
         <v>255</v>
       </c>
       <c r="AF146" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>59</v>
@@ -8515,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>4</v>
@@ -8534,13 +8533,13 @@
         <v>64</v>
       </c>
       <c r="Q147" s="4">
-        <v>12.7</v>
+        <v>-14.8</v>
       </c>
       <c r="R147" s="4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="S147" s="4">
-        <v>-24.7</v>
+        <v>-21.3</v>
       </c>
       <c r="T147" s="4">
         <v>2</v>
@@ -8552,12 +8551,12 @@
         <v>255</v>
       </c>
       <c r="AF147" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>59</v>
@@ -8585,16 +8584,16 @@
         <v>64</v>
       </c>
       <c r="Q148" s="4">
-        <v>-15.6</v>
+        <v>12.7</v>
       </c>
       <c r="R148" s="4">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="S148" s="4">
-        <v>-22.4</v>
+        <v>-24.7</v>
       </c>
       <c r="T148" s="4">
-        <v>1.1599999999999999</v>
+        <v>2</v>
       </c>
       <c r="W148" s="1">
         <v>2023</v>
@@ -8603,12 +8602,12 @@
         <v>255</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>59</v>
@@ -8636,16 +8635,16 @@
         <v>64</v>
       </c>
       <c r="Q149" s="4">
-        <v>-20</v>
+        <v>-15.6</v>
       </c>
       <c r="R149" s="4">
-        <v>1.5</v>
+        <v>0.42</v>
       </c>
       <c r="S149" s="4">
-        <v>-34.4</v>
+        <v>-22.4</v>
       </c>
       <c r="T149" s="4">
-        <v>4.57</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="W149" s="1">
         <v>2023</v>
@@ -8654,12 +8653,12 @@
         <v>255</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>59</v>
@@ -8668,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>4</v>
@@ -8687,16 +8686,16 @@
         <v>64</v>
       </c>
       <c r="Q150" s="4">
-        <v>-17.5</v>
+        <v>-20</v>
       </c>
       <c r="R150" s="4">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="S150" s="4">
-        <v>-23.2</v>
+        <v>-34.4</v>
       </c>
       <c r="T150" s="4">
-        <v>1.33</v>
+        <v>4.57</v>
       </c>
       <c r="W150" s="1">
         <v>2023</v>
@@ -8705,12 +8704,12 @@
         <v>255</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>59</v>
@@ -8719,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>4</v>
@@ -8738,13 +8737,17 @@
         <v>64</v>
       </c>
       <c r="Q151" s="4">
-        <v>-17</v>
-      </c>
-      <c r="R151" s="4"/>
+        <v>-17.5</v>
+      </c>
+      <c r="R151" s="4">
+        <v>0.42</v>
+      </c>
       <c r="S151" s="4">
-        <v>-21.9</v>
-      </c>
-      <c r="T151" s="4"/>
+        <v>-23.2</v>
+      </c>
+      <c r="T151" s="4">
+        <v>1.33</v>
+      </c>
       <c r="W151" s="1">
         <v>2023</v>
       </c>
@@ -8752,12 +8755,12 @@
         <v>255</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>59</v>
@@ -8766,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>4</v>
@@ -8785,11 +8788,11 @@
         <v>64</v>
       </c>
       <c r="Q152" s="4">
-        <v>-17.8</v>
+        <v>-17</v>
       </c>
       <c r="R152" s="4"/>
       <c r="S152" s="4">
-        <v>-27.9</v>
+        <v>-21.9</v>
       </c>
       <c r="T152" s="4"/>
       <c r="W152" s="1">
@@ -8799,12 +8802,12 @@
         <v>255</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>59</v>
@@ -8832,11 +8835,11 @@
         <v>64</v>
       </c>
       <c r="Q153" s="4">
-        <v>-18.5</v>
+        <v>-17.8</v>
       </c>
       <c r="R153" s="4"/>
       <c r="S153" s="4">
-        <v>-30.2</v>
+        <v>-27.9</v>
       </c>
       <c r="T153" s="4"/>
       <c r="W153" s="1">
@@ -8846,12 +8849,12 @@
         <v>255</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>59</v>
@@ -8860,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>4</v>
@@ -8879,11 +8882,11 @@
         <v>64</v>
       </c>
       <c r="Q154" s="4">
-        <v>-19.7</v>
+        <v>-18.5</v>
       </c>
       <c r="R154" s="4"/>
       <c r="S154" s="4">
-        <v>-41.9</v>
+        <v>-30.2</v>
       </c>
       <c r="T154" s="4"/>
       <c r="W154" s="1">
@@ -8893,12 +8896,12 @@
         <v>255</v>
       </c>
       <c r="AF154" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>59</v>
@@ -8906,40 +8909,46 @@
       <c r="C155" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F155" s="1">
+        <v>0.5</v>
+      </c>
       <c r="H155" s="1" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q155" s="4">
-        <v>-9.85</v>
+        <v>-19.7</v>
       </c>
       <c r="R155" s="4"/>
       <c r="S155" s="4">
-        <v>-39.22</v>
+        <v>-41.9</v>
       </c>
       <c r="T155" s="4"/>
       <c r="W155" s="1">
-        <v>2010</v>
-      </c>
-      <c r="X155" s="17" t="s">
-        <v>285</v>
+        <v>2023</v>
+      </c>
+      <c r="X155" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="AF155" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>59</v>
@@ -8947,47 +8956,40 @@
       <c r="C156" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F156" s="1">
-        <v>0.5</v>
-      </c>
       <c r="H156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q156" s="4">
-        <v>-12.3</v>
-      </c>
-      <c r="R156" s="4">
-        <v>0.4</v>
-      </c>
+        <v>-9.85</v>
+      </c>
+      <c r="R156" s="4"/>
       <c r="S156" s="4">
-        <v>-29</v>
-      </c>
-      <c r="T156" s="4">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>-39.22</v>
+      </c>
+      <c r="T156" s="4"/>
       <c r="W156" s="1">
-        <v>2017</v>
-      </c>
-      <c r="X156" s="1" t="s">
-        <v>284</v>
+        <v>2010</v>
+      </c>
+      <c r="X156" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF156" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>59</v>
@@ -8995,86 +8997,85 @@
       <c r="C157" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F157" s="1">
+        <v>0.5</v>
+      </c>
       <c r="H157" s="1" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q157" s="4">
-        <v>-11.6</v>
-      </c>
-      <c r="R157" s="4"/>
+        <v>-12.3</v>
+      </c>
+      <c r="R157" s="4">
+        <v>0.4</v>
+      </c>
       <c r="S157" s="4">
-        <v>-52</v>
-      </c>
-      <c r="T157" s="4"/>
+        <v>-29</v>
+      </c>
+      <c r="T157" s="4">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="W157" s="1">
-        <v>2014</v>
-      </c>
-      <c r="X157" s="17" t="s">
-        <v>286</v>
+        <v>2017</v>
+      </c>
+      <c r="X157" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N158" s="1">
-        <v>298.14999999999998</v>
+        <v>62</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q158" s="4">
-        <v>-6.9</v>
+        <v>-11.6</v>
       </c>
       <c r="R158" s="4"/>
       <c r="S158" s="4">
-        <v>-16</v>
+        <v>-52</v>
       </c>
       <c r="T158" s="4"/>
-      <c r="U158" s="2">
-        <f>Q158-(S158/1000*N158)</f>
-        <v>-2.1296000000000008</v>
-      </c>
-      <c r="V158" s="2"/>
       <c r="W158" s="1">
         <v>2014</v>
       </c>
-      <c r="X158" s="1" t="s">
-        <v>291</v>
+      <c r="X158" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>98</v>
@@ -9102,16 +9103,16 @@
         <v>64</v>
       </c>
       <c r="Q159" s="4">
-        <v>-4.6399999999999997</v>
+        <v>-6.9</v>
       </c>
       <c r="R159" s="4"/>
       <c r="S159" s="4">
-        <v>-7.1</v>
+        <v>-16</v>
       </c>
       <c r="T159" s="4"/>
       <c r="U159" s="2">
-        <f>(Q159-(S159/1000*N159))</f>
-        <v>-2.5231349999999999</v>
+        <f>Q159-(S159/1000*N159)</f>
+        <v>-2.1296000000000008</v>
       </c>
       <c r="V159" s="2"/>
       <c r="W159" s="1">
@@ -9123,10 +9124,10 @@
     </row>
     <row r="160" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C160" s="1" t="b">
         <v>1</v>
@@ -9135,7 +9136,7 @@
         <v>4</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="1" t="s">
@@ -9151,13 +9152,18 @@
         <v>64</v>
       </c>
       <c r="Q160" s="4">
-        <v>-19.63</v>
+        <v>-4.6399999999999997</v>
       </c>
       <c r="R160" s="4"/>
       <c r="S160" s="4">
-        <v>-51</v>
+        <v>-7.1</v>
       </c>
       <c r="T160" s="4"/>
+      <c r="U160" s="2">
+        <f>(Q160-(S160/1000*N160))</f>
+        <v>-2.5231349999999999</v>
+      </c>
+      <c r="V160" s="2"/>
       <c r="W160" s="1">
         <v>2014</v>
       </c>
@@ -9167,7 +9173,7 @@
     </row>
     <row r="161" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>59</v>
@@ -9175,14 +9181,11 @@
       <c r="C161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F161" s="1">
-        <v>0.75</v>
-      </c>
       <c r="H161" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="1" t="s">
@@ -9198,25 +9201,18 @@
         <v>64</v>
       </c>
       <c r="Q161" s="4">
-        <v>-15.5</v>
-      </c>
-      <c r="R161" s="4">
-        <v>0.6</v>
-      </c>
+        <v>-19.63</v>
+      </c>
+      <c r="R161" s="4"/>
       <c r="S161" s="4">
-        <v>-47.2</v>
-      </c>
-      <c r="T161" s="4">
-        <v>2</v>
-      </c>
+        <v>-51</v>
+      </c>
+      <c r="T161" s="4"/>
       <c r="W161" s="1">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="X161" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF161" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9230,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>4</v>
@@ -9252,16 +9248,16 @@
         <v>64</v>
       </c>
       <c r="Q162" s="4">
-        <v>-15.1</v>
+        <v>-15.5</v>
       </c>
       <c r="R162" s="4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="S162" s="4">
-        <v>-47.4</v>
+        <v>-47.2</v>
       </c>
       <c r="T162" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="W162" s="1">
         <v>2025</v>
@@ -9270,7 +9266,7 @@
         <v>303</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9284,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>4</v>
@@ -9306,10 +9302,10 @@
         <v>64</v>
       </c>
       <c r="Q163" s="4">
-        <v>-15.9</v>
+        <v>-15.1</v>
       </c>
       <c r="R163" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="S163" s="4">
         <v>-47.4</v>
@@ -9324,7 +9320,7 @@
         <v>303</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -9338,7 +9334,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>4</v>
@@ -9360,16 +9356,16 @@
         <v>64</v>
       </c>
       <c r="Q164" s="4">
-        <v>-16.2</v>
+        <v>-15.9</v>
       </c>
       <c r="R164" s="4">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S164" s="4">
-        <v>-47.5</v>
+        <v>-47.4</v>
       </c>
       <c r="T164" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="W164" s="1">
         <v>2025</v>
@@ -9378,12 +9374,12 @@
         <v>303</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="24" t="s">
-        <v>133</v>
+      <c r="A165" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>59</v>
@@ -9391,11 +9387,14 @@
       <c r="C165" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F165" s="1">
+        <v>2</v>
+      </c>
       <c r="H165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" s="1" t="s">
@@ -9411,23 +9410,30 @@
         <v>64</v>
       </c>
       <c r="Q165" s="4">
-        <v>-11.8</v>
-      </c>
-      <c r="R165" s="4"/>
+        <v>-16.2</v>
+      </c>
+      <c r="R165" s="4">
+        <v>0.1</v>
+      </c>
       <c r="S165" s="4">
-        <v>-29.6</v>
-      </c>
-      <c r="T165" s="4"/>
+        <v>-47.5</v>
+      </c>
+      <c r="T165" s="4">
+        <v>0.5</v>
+      </c>
       <c r="W165" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="X165" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="AF165" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="24" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>59</v>
@@ -9455,11 +9461,11 @@
         <v>64</v>
       </c>
       <c r="Q166" s="4">
-        <v>-13.1</v>
+        <v>-11.8</v>
       </c>
       <c r="R166" s="4"/>
       <c r="S166" s="4">
-        <v>-37</v>
+        <v>-29.6</v>
       </c>
       <c r="T166" s="4"/>
       <c r="W166" s="1">
@@ -9468,25 +9474,10 @@
       <c r="X166" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="Y166" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z166" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA166" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB166" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC166" s="1" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="167" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>59</v>
@@ -9514,11 +9505,11 @@
         <v>64</v>
       </c>
       <c r="Q167" s="4">
-        <v>-7.9</v>
+        <v>-13.1</v>
       </c>
       <c r="R167" s="4"/>
       <c r="S167" s="4">
-        <v>-34.1</v>
+        <v>-37</v>
       </c>
       <c r="T167" s="4"/>
       <c r="W167" s="1">
@@ -9527,10 +9518,25 @@
       <c r="X167" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="Y167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="168" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="24" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>59</v>
@@ -9558,11 +9564,11 @@
         <v>64</v>
       </c>
       <c r="Q168" s="4">
-        <v>-2</v>
+        <v>-7.9</v>
       </c>
       <c r="R168" s="4"/>
       <c r="S168" s="4">
-        <v>26.1</v>
+        <v>-34.1</v>
       </c>
       <c r="T168" s="4"/>
       <c r="W168" s="1">
@@ -9574,7 +9580,7 @@
     </row>
     <row r="169" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="24" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>59</v>
@@ -9602,11 +9608,11 @@
         <v>64</v>
       </c>
       <c r="Q169" s="4">
-        <v>-23.7</v>
+        <v>-2</v>
       </c>
       <c r="R169" s="4"/>
       <c r="S169" s="4">
-        <v>-42.9</v>
+        <v>26.1</v>
       </c>
       <c r="T169" s="4"/>
       <c r="W169" s="1">
@@ -9618,7 +9624,7 @@
     </row>
     <row r="170" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="24" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>59</v>
@@ -9646,11 +9652,11 @@
         <v>64</v>
       </c>
       <c r="Q170" s="4">
-        <v>-20.399999999999999</v>
+        <v>-23.7</v>
       </c>
       <c r="R170" s="4"/>
       <c r="S170" s="4">
-        <v>-12.8</v>
+        <v>-42.9</v>
       </c>
       <c r="T170" s="4"/>
       <c r="W170" s="1">
@@ -9660,54 +9666,98 @@
         <v>308</v>
       </c>
     </row>
-    <row r="171" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="B171" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I171" s="26" t="s">
+    <row r="171" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K171" s="27"/>
-      <c r="L171" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="M171" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="N171" s="26">
+      <c r="K171" s="3"/>
+      <c r="L171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N171" s="1">
         <v>298.14999999999998</v>
       </c>
-      <c r="P171" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q171" s="28">
-        <v>-17</v>
-      </c>
-      <c r="R171" s="28"/>
-      <c r="S171" s="28">
-        <v>-23</v>
-      </c>
-      <c r="T171" s="28"/>
-      <c r="W171" s="26">
+      <c r="P171" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q171" s="4">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4">
+        <v>-12.8</v>
+      </c>
+      <c r="T171" s="4"/>
+      <c r="W171" s="1">
         <v>2024</v>
       </c>
       <c r="X171" s="1" t="s">
         <v>308</v>
       </c>
     </row>
+    <row r="172" spans="1:32" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K172" s="27"/>
+      <c r="L172" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M172" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N172" s="26">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="P172" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q172" s="28">
+        <v>-17</v>
+      </c>
+      <c r="R172" s="28"/>
+      <c r="S172" s="28">
+        <v>-23</v>
+      </c>
+      <c r="T172" s="28"/>
+      <c r="W172" s="26">
+        <v>2024</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL94" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL122">
-      <sortCondition ref="X1:X94"/>
+  <autoFilter ref="A1:AL95" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL123">
+      <sortCondition ref="X1:X95"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9790,26 +9840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -10038,10 +10068,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
+    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10064,20 +10125,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
-    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>